--- a/data/trans_dic/P15D$ingresado-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15D$ingresado-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0422722955047197</v>
+        <v>0.04227229550471969</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0.1184369728889566</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05238931994648408</v>
+        <v>0.0523893199464841</v>
       </c>
     </row>
     <row r="5">
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04688470673444427</v>
+        <v>0.04424921346828204</v>
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
@@ -722,22 +722,22 @@
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06998694091050635</v>
+        <v>0.07006164284632817</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01537137413509562</v>
+        <v>0.01605206582901239</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04493680462585775</v>
+        <v>0.04234049844737705</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04372792121671494</v>
+        <v>0.04358779554093498</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01673993100402007</v>
+        <v>0.01558914064261844</v>
       </c>
     </row>
     <row r="6">
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5589233081545397</v>
+        <v>0.5147435053414918</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2774060317257286</v>
+        <v>0.2697555410975774</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.1955386701212021</v>
+        <v>0.1815006045202577</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.2386455070335618</v>
+        <v>0.2321855615911314</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3862203743734937</v>
+        <v>0.3802746080295506</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.140191285208802</v>
+        <v>0.1398756745639154</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3608832191577876</v>
+        <v>0.3792286392772248</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1931299073024024</v>
+        <v>0.1930560273041435</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2470114145478158</v>
+        <v>0.2427589501853213</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1183135365481108</v>
+        <v>0.1278352483600488</v>
       </c>
     </row>
     <row r="7">
@@ -839,37 +839,37 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06515599493815437</v>
+        <v>0.06330989398552252</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06394920528862072</v>
+        <v>0.06805683488799173</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0317028400292334</v>
+        <v>0.03177301345717944</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02307519313007692</v>
+        <v>0.03392562894725182</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06094046926236967</v>
+        <v>0.0616197422790622</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06664077032660479</v>
+        <v>0.06560145454949369</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0</v>
+        <v>0.02819048940553051</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06574557884788067</v>
+        <v>0.05912516429187345</v>
       </c>
     </row>
     <row r="9">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7958132219495999</v>
+        <v>0.7837095082570289</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3622906590324321</v>
+        <v>0.3499780857004082</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2327237163137771</v>
+        <v>0.2646685642869271</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3919282978109445</v>
+        <v>0.4143512116230265</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5599680026045764</v>
+        <v>0.4599414838400199</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2458484835558402</v>
+        <v>0.2515677140692768</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4068077914395028</v>
+        <v>0.396638714836061</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.205491113529839</v>
+        <v>0.2191440599654323</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.52504135628794</v>
+        <v>0.5189043507524923</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2477339300533036</v>
+        <v>0.2482143569890708</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2107567142109542</v>
+        <v>0.2363695185519207</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.236948172089907</v>
+        <v>0.2209440117873263</v>
       </c>
     </row>
     <row r="10">
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09639001675654135</v>
+        <v>0.09639001675654132</v>
       </c>
     </row>
     <row r="11">
@@ -979,27 +979,27 @@
       </c>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.04129461109533742</v>
+        <v>0.03749718400610493</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0</v>
+        <v>0.02420856415568023</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.01368678252435523</v>
+        <v>0.01377071187676497</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02092754712009205</v>
+        <v>0.02067476126428016</v>
       </c>
       <c r="M11" s="5" t="inlineStr"/>
       <c r="N11" s="5" t="n">
-        <v>0.03700919881067004</v>
+        <v>0.03822801677810523</v>
       </c>
     </row>
     <row r="12">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2655017271402548</v>
+        <v>0.2192751425775779</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1302649145964404</v>
+        <v>0.1114994285284486</v>
       </c>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.3142600555630668</v>
+        <v>0.2957340573008734</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.790831689717164</v>
+        <v>1</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2040124022634978</v>
+        <v>0.225644982687949</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.1777772150578165</v>
+        <v>0.1597393634930092</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3345596693406248</v>
+        <v>0.3119919896166033</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1258347813658536</v>
+        <v>0.1184761599354809</v>
       </c>
       <c r="M12" s="5" t="inlineStr"/>
       <c r="N12" s="5" t="n">
-        <v>0.1850841318693488</v>
+        <v>0.1874892605614308</v>
       </c>
     </row>
     <row r="13">
@@ -1085,7 +1085,7 @@
         <v>0.1752620471746514</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2988102621655229</v>
+        <v>0.2988102621655228</v>
       </c>
     </row>
     <row r="14">
@@ -1100,30 +1100,30 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07432472761476563</v>
+        <v>0.05487002179793715</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08495193339359648</v>
+        <v>0.07543050319462304</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
-        <v>0.07078170426186238</v>
+        <v>0.07002976952436497</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0667718152508862</v>
+        <v>0.07119099378400648</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1214795741980584</v>
+        <v>0.1168046379603707</v>
       </c>
       <c r="K14" s="5" t="inlineStr"/>
       <c r="L14" s="5" t="n">
-        <v>0.04284129006979352</v>
+        <v>0.04479050969173617</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08453274297368751</v>
+        <v>0.09247508719683455</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1426208290029813</v>
+        <v>0.1378424896602664</v>
       </c>
     </row>
     <row r="15">
@@ -1135,33 +1135,33 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.1519367946146613</v>
+        <v>0.151456163900363</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.330374476030376</v>
+        <v>0.3400213857179366</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.602500745344314</v>
+        <v>0.6056079793061002</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.5301095591516878</v>
+        <v>0.53062597072128</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.356602992427645</v>
+        <v>0.3736513046208266</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7156490249066669</v>
+        <v>0.6840056309097154</v>
       </c>
       <c r="K15" s="5" t="inlineStr"/>
       <c r="L15" s="5" t="n">
-        <v>0.246669954156865</v>
+        <v>0.2376685611571002</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2848019390995842</v>
+        <v>0.2870532932819222</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5460114911118239</v>
+        <v>0.5259321836926116</v>
       </c>
     </row>
     <row r="16">
@@ -1253,27 +1253,27 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.3385585446930176</v>
+        <v>0.2598137677942648</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3379382741571447</v>
+        <v>0.3343333971098653</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.2506842539321792</v>
+        <v>0.2505580140258793</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="inlineStr"/>
       <c r="L18" s="5" t="n">
-        <v>0.170180858935811</v>
+        <v>0.1702807043041496</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2591138892259984</v>
+        <v>0.2768311169669894</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.315620414372613</v>
+        <v>0.4080370916966272</v>
       </c>
     </row>
     <row r="19">
@@ -1297,7 +1297,7 @@
         <v>0.1251744227349791</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2329966430295018</v>
+        <v>0.2329966430295019</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.09632606486953042</v>
@@ -1309,7 +1309,7 @@
         <v>0.09264960794677109</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.115382357391856</v>
+        <v>0.1153823573918561</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2005376427574973</v>
@@ -1336,10 +1336,10 @@
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.03038606110737741</v>
+        <v>0.03011328374527616</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1146792390482678</v>
+        <v>0.1179988510644904</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02823321025945819</v>
+        <v>0.02775753835913022</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05539203362098205</v>
+        <v>0.05262682949674792</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05427370449323055</v>
+        <v>0.05434681390564518</v>
       </c>
       <c r="L20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04737088233688955</v>
+        <v>0.04289692269711538</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1024118717296362</v>
+        <v>0.1100634422162035</v>
       </c>
     </row>
     <row r="21">
@@ -1374,38 +1374,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7226455862177185</v>
+        <v>0.7283272760448698</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.3527579332026044</v>
+        <v>0.3219082672503025</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.392059749579003</v>
+        <v>0.4109661855790532</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4082252893456667</v>
+        <v>0.4009194827088685</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1540604040010154</v>
+        <v>0.1565665778092606</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2362076277130035</v>
+        <v>0.2388625251059669</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2176033602724616</v>
+        <v>0.2093144517933487</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4826477094525299</v>
+        <v>0.4625766590031824</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06911256352755772</v>
+        <v>0.07866125632472387</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2259324060427638</v>
+        <v>0.2234845895410504</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2718335117981345</v>
+        <v>0.2619344974442882</v>
       </c>
     </row>
     <row r="22">
@@ -1429,7 +1429,7 @@
         <v>0.1146276714898436</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1277811874411131</v>
+        <v>0.127781187441113</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0</v>
@@ -1464,38 +1464,38 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0764253137092214</v>
+        <v>0.06545401562551555</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01462905636966401</v>
+        <v>0.01499369628466594</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03360289631982096</v>
+        <v>0.03364813726247874</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05238747107500504</v>
+        <v>0.05667033247535035</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03675338838667574</v>
+        <v>0.03751624032877816</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04908472429127417</v>
+        <v>0.0484040989817751</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04037961064408896</v>
+        <v>0.03921169528264817</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01630443089581299</v>
+        <v>0.01749863339102588</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04966540497588159</v>
+        <v>0.04170898465706917</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06635614592438241</v>
+        <v>0.06829317640029516</v>
       </c>
     </row>
     <row r="24">
@@ -1506,38 +1506,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4291450820172873</v>
+        <v>0.3863226457747292</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1343574253230851</v>
+        <v>0.1667575742107404</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2834355387154732</v>
+        <v>0.2800674558817324</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2763020941744232</v>
+        <v>0.2480956407024707</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.1142964738581138</v>
+        <v>0.1248484194101178</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3085634512419126</v>
+        <v>0.2925660087736983</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1851848119893312</v>
+        <v>0.186566136589584</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2462637306353601</v>
+        <v>0.2364218392220996</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.09831002558338209</v>
+        <v>0.103518171576528</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.231877759154085</v>
+        <v>0.2160259882359906</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1850425249153583</v>
+        <v>0.1875859884349686</v>
       </c>
     </row>
     <row r="25">
@@ -1596,38 +1596,38 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0397659260882433</v>
+        <v>0.03830168762040616</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.08482416073362202</v>
+        <v>0.09561405798459419</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.09748751712233121</v>
+        <v>0.1030895876614655</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.09307811839817481</v>
+        <v>0.09443042542499772</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04150487369832767</v>
+        <v>0.04191827793229479</v>
       </c>
       <c r="I26" s="5" t="inlineStr"/>
       <c r="J26" s="5" t="n">
-        <v>0.04184054219097767</v>
+        <v>0.04203315403343345</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03455100710374608</v>
+        <v>0.03545902972366292</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.08680658137137383</v>
+        <v>0.08740920604517151</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.04806889540901328</v>
+        <v>0.0498685762277577</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.08390495434205265</v>
+        <v>0.08629494488907109</v>
       </c>
     </row>
     <row r="27">
@@ -1638,38 +1638,38 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2889418711667247</v>
+        <v>0.3158743312556281</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4906506844064155</v>
+        <v>0.5107288723810961</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3988575013535681</v>
+        <v>0.4062771888590673</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4316338787549187</v>
+        <v>0.4188250789722444</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2280012044221117</v>
+        <v>0.2357309052442481</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3289117923983027</v>
+        <v>0.3292513664623757</v>
       </c>
       <c r="I27" s="5" t="inlineStr"/>
       <c r="J27" s="5" t="n">
-        <v>0.226168264094799</v>
+        <v>0.2323565890324824</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2056371546645908</v>
+        <v>0.2295709649430664</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3244611269372439</v>
+        <v>0.341238800244396</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2400853220254923</v>
+        <v>0.2327585860277077</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2697345024105501</v>
+        <v>0.2654000427893942</v>
       </c>
     </row>
     <row r="28">
@@ -1693,7 +1693,7 @@
         <v>0.1120307116734854</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.1628787115470358</v>
+        <v>0.1628787115470359</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.05394492976196631</v>
@@ -1728,40 +1728,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.08150827468456871</v>
+        <v>0.08172693928123792</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.05362065584479793</v>
+        <v>0.05387923259038953</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.07249023741365046</v>
+        <v>0.07107788922375817</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1160517388288644</v>
+        <v>0.1172636391142142</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02040711089419837</v>
+        <v>0.01968920605883851</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.04701171180665895</v>
+        <v>0.05018772134421914</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.06627189459887682</v>
+        <v>0.06500667462374754</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.07945209617903187</v>
+        <v>0.08397043968260159</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.06372169424785272</v>
+        <v>0.06251196491602909</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.05801759224057974</v>
+        <v>0.05969507980994264</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.08150899384747058</v>
+        <v>0.07938486709833006</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1089846622006456</v>
+        <v>0.1080821222570363</v>
       </c>
     </row>
     <row r="30">
@@ -1772,40 +1772,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2111226384653651</v>
+        <v>0.215573056269215</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1201999321074332</v>
+        <v>0.1198929040208837</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1599348070090502</v>
+        <v>0.1666397428475671</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2269383484211031</v>
+        <v>0.2310565377963148</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.122219228497166</v>
+        <v>0.1168116804212149</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1168307868652389</v>
+        <v>0.1178503247475314</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1622197284071195</v>
+        <v>0.1623006533364053</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.168345653875251</v>
+        <v>0.1685264713670262</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1509301942085568</v>
+        <v>0.1501177379075172</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1056439536739801</v>
+        <v>0.1073111036069275</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1491415700738546</v>
+        <v>0.1479370194448698</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1743550545165658</v>
+        <v>0.1742723104973218</v>
       </c>
     </row>
     <row r="31">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1736</v>
+        <v>1639</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
@@ -2094,22 +2094,22 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2906</v>
+        <v>2738</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2160</v>
+        <v>2153</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>962</v>
+        <v>896</v>
       </c>
     </row>
     <row r="7">
@@ -2120,36 +2120,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5195</v>
+        <v>4784</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10274</v>
+        <v>9991</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>5287</v>
+        <v>4908</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>6592</v>
+        <v>6414</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11659</v>
+        <v>11480</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4267</v>
+        <v>4257</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5912</v>
+        <v>6212</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>12488</v>
+        <v>12483</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>12201</v>
+        <v>11991</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>6800</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="8">
@@ -2255,37 +2255,37 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2025</v>
+        <v>1968</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1580</v>
+        <v>1681</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>801</v>
+        <v>1178</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>4088</v>
+        <v>4024</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3907</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="11">
@@ -2296,40 +2296,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6249</v>
+        <v>6154</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11260</v>
+        <v>10878</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>4518</v>
+        <v>5139</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9682</v>
+        <v>10236</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5020</v>
+        <v>4123</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7438</v>
+        <v>7611</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6459</v>
+        <v>6298</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>7137</v>
+        <v>7611</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8829</v>
+        <v>8725</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>15196</v>
+        <v>15225</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>7438</v>
+        <v>8342</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>14083</v>
+        <v>13131</v>
       </c>
     </row>
     <row r="12">
@@ -2439,27 +2439,27 @@
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>921</v>
+        <v>837</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0</v>
+        <v>964</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1940</v>
+        <v>1916</v>
       </c>
       <c r="M14" s="6" t="inlineStr"/>
       <c r="N14" s="6" t="n">
-        <v>1814</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="15">
@@ -2470,34 +2470,34 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4840</v>
+        <v>3997</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6885</v>
+        <v>5893</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>7011</v>
+        <v>6598</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3325</v>
+        <v>4205</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8128</v>
+        <v>8990</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>4748</v>
+        <v>4266</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>7506</v>
+        <v>6999</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>11664</v>
+        <v>10982</v>
       </c>
       <c r="M15" s="6" t="inlineStr"/>
       <c r="N15" s="6" t="n">
-        <v>9072</v>
+        <v>9190</v>
       </c>
     </row>
     <row r="16">
@@ -2604,30 +2604,30 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2853</v>
+        <v>2107</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2387</v>
+        <v>2119</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2429</v>
+        <v>2589</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2357</v>
+        <v>2266</v>
       </c>
       <c r="K18" s="6" t="inlineStr"/>
       <c r="L18" s="6" t="n">
-        <v>2010</v>
+        <v>2102</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>6320</v>
+        <v>6914</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>6774</v>
+        <v>6547</v>
       </c>
     </row>
     <row r="19">
@@ -2639,33 +2639,33 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>4634</v>
+        <v>4619</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12684</v>
+        <v>13054</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>16928</v>
+        <v>17015</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>8706</v>
+        <v>8714</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>12970</v>
+        <v>13590</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13883</v>
+        <v>13269</v>
       </c>
       <c r="K19" s="6" t="inlineStr"/>
       <c r="L19" s="6" t="n">
-        <v>11574</v>
+        <v>11151</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>21293</v>
+        <v>21461</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>25932</v>
+        <v>24979</v>
       </c>
     </row>
     <row r="20">
@@ -2801,27 +2801,27 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>4459</v>
+        <v>3422</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3421</v>
+        <v>3385</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>4963</v>
+        <v>4961</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="inlineStr"/>
       <c r="K23" s="6" t="inlineStr"/>
       <c r="L23" s="6" t="n">
-        <v>5611</v>
+        <v>5614</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>3490</v>
+        <v>3729</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2530</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="24">
@@ -2928,10 +2928,10 @@
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2984</v>
+        <v>3070</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
@@ -2940,22 +2940,22 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1029</v>
+        <v>1012</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1558</v>
+        <v>1480</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="L26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>3064</v>
+        <v>2775</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>5545</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="27">
@@ -2966,38 +2966,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6426</v>
+        <v>6477</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>9956</v>
+        <v>9086</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10201</v>
+        <v>10693</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4328</v>
+        <v>4251</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5456</v>
+        <v>5545</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>8612</v>
+        <v>8709</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>6121</v>
+        <v>5888</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>9409</v>
+        <v>9018</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>4545</v>
+        <v>5173</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>14614</v>
+        <v>14456</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>14719</v>
+        <v>14183</v>
       </c>
     </row>
     <row r="28">
@@ -3100,38 +3100,38 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2085</v>
+        <v>1786</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>947</v>
+        <v>971</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2923</v>
+        <v>3162</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1007</v>
+        <v>1028</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2868</v>
+        <v>2828</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1845</v>
+        <v>1792</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>2029</v>
+        <v>2178</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2674</v>
+        <v>2246</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>7580</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="31">
@@ -3142,38 +3142,38 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>11709</v>
+        <v>10540</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>8702</v>
+        <v>10800</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>7493</v>
+        <v>7404</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>15418</v>
+        <v>13844</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>6821</v>
+        <v>7450</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>8457</v>
+        <v>8018</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>10821</v>
+        <v>10902</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>11254</v>
+        <v>10804</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>12234</v>
+        <v>12882</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>12485</v>
+        <v>11631</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>21139</v>
+        <v>21429</v>
       </c>
     </row>
     <row r="32">
@@ -3276,38 +3276,38 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1049</v>
+        <v>1011</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2037</v>
+        <v>2296</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3374</v>
+        <v>3568</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2752</v>
+        <v>2792</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1051</v>
+        <v>1061</v>
       </c>
       <c r="I34" s="6" t="inlineStr"/>
       <c r="J34" s="6" t="n">
-        <v>1415</v>
+        <v>1422</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1842</v>
+        <v>1891</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>4282</v>
+        <v>4312</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2949</v>
+        <v>3059</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>5318</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="35">
@@ -3318,38 +3318,38 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>7625</v>
+        <v>8336</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>11782</v>
+        <v>12264</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>13803</v>
+        <v>14060</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>12760</v>
+        <v>12381</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>6141</v>
+        <v>6349</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>8326</v>
+        <v>8334</v>
       </c>
       <c r="I35" s="6" t="inlineStr"/>
       <c r="J35" s="6" t="n">
-        <v>7650</v>
+        <v>7859</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>10965</v>
+        <v>12241</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>16004</v>
+        <v>16832</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>14727</v>
+        <v>14278</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>17097</v>
+        <v>16823</v>
       </c>
     </row>
     <row r="36">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>10032</v>
+        <v>10059</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>15216</v>
+        <v>15289</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>14472</v>
+        <v>14190</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>25650</v>
+        <v>25918</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1914</v>
+        <v>1847</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>11957</v>
+        <v>12765</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>12609</v>
+        <v>12369</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>18447</v>
+        <v>19496</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>13820</v>
+        <v>13558</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>31220</v>
+        <v>32123</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>31780</v>
+        <v>30952</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>49392</v>
+        <v>48983</v>
       </c>
     </row>
     <row r="39">
@@ -3496,40 +3496,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>25984</v>
+        <v>26532</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>34109</v>
+        <v>34022</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>31928</v>
+        <v>33267</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>50159</v>
+        <v>51069</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>11465</v>
+        <v>10958</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>29715</v>
+        <v>29975</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>30865</v>
+        <v>30880</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>39086</v>
+        <v>39128</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>32734</v>
+        <v>32558</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>56848</v>
+        <v>57745</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>58150</v>
+        <v>57681</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>79018</v>
+        <v>78981</v>
       </c>
     </row>
     <row r="40">
